--- a/Excel/Datas/__tables__.xlsx
+++ b/Excel/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\creator\CT\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA9C621-09F3-4806-B3E5-2AA0101EAB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBA0C94-4CB7-4898-9332-10C053382685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -121,22 +121,10 @@
     <t>parser_mode=column或stream，默认为column</t>
   </si>
   <si>
-    <t>LevelInfoConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelInfoConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>道具/道具表.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>等级/等级信息表.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemConfigCategory</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -190,6 +178,22 @@
   </si>
   <si>
     <t>StartZoneConfigCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitConfigCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitConfig</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +567,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -692,94 +696,106 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5"/>
+      <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="H9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>

--- a/Excel/Datas/__tables__.xlsx
+++ b/Excel/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\creator\CT\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBA0C94-4CB7-4898-9332-10C053382685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459E4547-D9E3-4090-BD80-E4C905630865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -119,18 +119,6 @@
   </si>
   <si>
     <t>parser_mode=column或stream，默认为column</t>
-  </si>
-  <si>
-    <t>道具/道具表.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>启动配置/StartMachineConfig.xlsx</t>
@@ -213,6 +201,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -220,12 +209,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -269,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,6 +277,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -696,16 +690,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -723,23 +717,27 @@
         <v>33</v>
       </c>
       <c r="F5" s="5"/>
+      <c r="H5" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -756,46 +754,34 @@
         <v>39</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
       <c r="H7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="F8" s="5"/>
       <c r="H8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="5"/>
-      <c r="H9" s="4" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -812,11 +798,10 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
@@ -883,12 +868,6 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
